--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AymaneElMouhafid\Downloads\gestion-du-stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2625E27-195A-4BDC-B6BE-637DAB2EDB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F86D9C-4712-483E-B46F-3FC84B34F6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>SKU</t>
   </si>
@@ -340,30 +340,9 @@
     <t>Client</t>
   </si>
   <si>
-    <t>2025-09-04 11:36:22</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>OF-AUTO</t>
-  </si>
-  <si>
-    <t>PROD</t>
-  </si>
-  <si>
-    <t>E1301319</t>
-  </si>
-  <si>
     <t>Aymane</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
     <t>DueDate</t>
   </si>
   <si>
@@ -371,15 +350,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>2025-09-11</t>
-  </si>
-  <si>
-    <t>GMQ ONE</t>
-  </si>
-  <si>
-    <t>Posté</t>
   </si>
   <si>
     <t>ComponentSKU</t>
@@ -1512,9 +1482,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="A2:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1545,162 +1517,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1710,9 +1526,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1724,48 +1542,22 @@
         <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1783,10 +1575,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1847,10 +1639,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1924,22 +1716,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1959,22 +1751,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
